--- a/food_delivery_data.xlsx
+++ b/food_delivery_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A581CA3-30DE-43D5-BE2B-C95B1638C95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6BAF18-BCEB-4F55-A734-BC29E772D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F78A3512-3470-4C16-AF11-6DA578BBFA1D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Order_ID</t>
   </si>
@@ -124,6 +124,54 @@
   </si>
   <si>
     <t>D05</t>
+  </si>
+  <si>
+    <t>ORD106</t>
+  </si>
+  <si>
+    <t>South Street</t>
+  </si>
+  <si>
+    <t>ORD107</t>
+  </si>
+  <si>
+    <t>ORD108</t>
+  </si>
+  <si>
+    <t>ORD109</t>
+  </si>
+  <si>
+    <t>ORD110</t>
+  </si>
+  <si>
+    <t>ORD111</t>
+  </si>
+  <si>
+    <t>ORD112</t>
+  </si>
+  <si>
+    <t>ORD113</t>
+  </si>
+  <si>
+    <t>ORD114</t>
+  </si>
+  <si>
+    <t>ORD115</t>
+  </si>
+  <si>
+    <t>ORD116</t>
+  </si>
+  <si>
+    <t>ORD117</t>
+  </si>
+  <si>
+    <t>ORD118</t>
+  </si>
+  <si>
+    <t>ORD119</t>
+  </si>
+  <si>
+    <t>ORD120</t>
   </si>
 </sst>
 </file>
@@ -485,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FBC3FC-9A70-4CAA-82C0-098287A57B26}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,6 +726,441 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G7">
+        <v>7.2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G8">
+        <v>4.8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G10">
+        <v>6.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="G11">
+        <v>7.8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G13">
+        <v>8.4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="G15">
+        <v>7.9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>6.2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="G17">
+        <v>5.8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G19">
+        <v>7.3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="G20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G21">
+        <v>6.9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/food_delivery_data.xlsx
+++ b/food_delivery_data.xlsx
@@ -5,17 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Performance model-EEX5362\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6BAF18-BCEB-4F55-A734-BC29E772D558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59181225-A210-4EB9-B80F-B6246398903F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F78A3512-3470-4C16-AF11-6DA578BBFA1D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F78A3512-3470-4C16-AF11-6DA578BBFA1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>Order_ID</t>
   </si>
@@ -173,6 +179,24 @@
   <si>
     <t>ORD120</t>
   </si>
+  <si>
+    <t>Total_Delivery_Time_Min</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Order_ID</t>
+  </si>
+  <si>
+    <t>Order_Hour</t>
+  </si>
+  <si>
+    <t>Average of Total_Delivery_Time_Min</t>
+  </si>
 </sst>
 </file>
 
@@ -215,10 +239,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,6 +265,4078 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[food_delivery_data.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Driver Utilization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>D01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-991F-47A6-B987-0F14AD6CA0B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1235669103"/>
+        <c:axId val="1235674095"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1235669103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Driver ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1235674095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1235674095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Orders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1235669103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[food_delivery_data.xlsx]Sheet3!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Delivery Time by Order Hour</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>38.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.249999999999986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1740-46FB-8EEF-7EBB693EA3B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1239067119"/>
+        <c:axId val="1239066287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1239067119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Order Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1239066287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1239066287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Delivery Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.27296077573636629"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1239067119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.000000000000128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.000000000000043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B32-4D4F-9526-31BA02838E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1396086063"/>
+        <c:axId val="1396085231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1396086063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396085231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1396085231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396086063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3982DECB-1294-45A5-AC4D-AC16C5C83569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5D6EE6-F616-4511-BCDB-52F19B396254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED83F218-2443-487C-80EB-E739ECBCDDD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="46005.685867824075" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="20" xr:uid="{F02B7FBE-16F5-49F4-9974-5062303FFFAC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J21" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Order_ID" numFmtId="0">
+      <sharedItems count="20">
+        <s v="ORD101"/>
+        <s v="ORD102"/>
+        <s v="ORD103"/>
+        <s v="ORD104"/>
+        <s v="ORD105"/>
+        <s v="ORD106"/>
+        <s v="ORD107"/>
+        <s v="ORD108"/>
+        <s v="ORD109"/>
+        <s v="ORD110"/>
+        <s v="ORD111"/>
+        <s v="ORD112"/>
+        <s v="ORD113"/>
+        <s v="ORD114"/>
+        <s v="ORD115"/>
+        <s v="ORD116"/>
+        <s v="ORD117"/>
+        <s v="ORD118"/>
+        <s v="ORD119"/>
+        <s v="ORD120"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Restaurant_Location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Customer_Location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Order_Time" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T11:35:00"/>
+    </cacheField>
+    <cacheField name="Pickup_Time" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T10:10:00" maxDate="1899-12-30T11:50:00"/>
+    </cacheField>
+    <cacheField name="Delivery_Time" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T10:30:00" maxDate="1899-12-30T12:30:00"/>
+    </cacheField>
+    <cacheField name="Delivery_Distance_km" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3" maxValue="8.4"/>
+    </cacheField>
+    <cacheField name="Driver_ID" numFmtId="0">
+      <sharedItems count="5">
+        <s v="D01"/>
+        <s v="D02"/>
+        <s v="D03"/>
+        <s v="D04"/>
+        <s v="D05"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Delivery_Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Total_Delivery_Time_Min" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.999999999999972" maxValue="55.000000000000128"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="46005.713386921299" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="20" xr:uid="{B5A0B2F5-8902-46EF-A71A-D1833CCD3790}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K21" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Order_ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Restaurant_Location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Customer_Location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Order_Time" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T11:35:00"/>
+    </cacheField>
+    <cacheField name="Pickup_Time" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T10:10:00" maxDate="1899-12-30T11:50:00"/>
+    </cacheField>
+    <cacheField name="Delivery_Time" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T10:30:00" maxDate="1899-12-30T12:30:00"/>
+    </cacheField>
+    <cacheField name="Delivery_Distance_km" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3" maxValue="8.4"/>
+    </cacheField>
+    <cacheField name="Driver_ID" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Delivery_Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Total_Delivery_Time_Min" numFmtId="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.999999999999972" maxValue="55.000000000000128"/>
+    </cacheField>
+    <cacheField name="Order_Hour" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="11" count="2">
+        <n v="10"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <x v="0"/>
+    <s v="Downtown"/>
+    <s v="North Zone"/>
+    <d v="1899-12-30T10:00:00"/>
+    <d v="1899-12-30T10:10:00"/>
+    <d v="1899-12-30T10:30:00"/>
+    <n v="5.2"/>
+    <x v="0"/>
+    <s v="Delivered"/>
+    <n v="29.999999999999972"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="East Zone"/>
+    <s v="South Zone"/>
+    <d v="1899-12-30T10:05:00"/>
+    <d v="1899-12-30T10:20:00"/>
+    <d v="1899-12-30T10:50:00"/>
+    <n v="7.5"/>
+    <x v="1"/>
+    <s v="Delayed"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="West End"/>
+    <s v="East Zone"/>
+    <d v="1899-12-30T10:10:00"/>
+    <d v="1899-12-30T10:25:00"/>
+    <d v="1899-12-30T10:55:00"/>
+    <n v="4.3"/>
+    <x v="2"/>
+    <s v="Delivered"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Central Mall"/>
+    <s v="West Zone"/>
+    <d v="1899-12-30T10:15:00"/>
+    <d v="1899-12-30T10:30:00"/>
+    <d v="1899-12-30T10:45:00"/>
+    <n v="6"/>
+    <x v="3"/>
+    <s v="Delivered"/>
+    <n v="30.000000000000053"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="North Park"/>
+    <s v="Central Zone"/>
+    <d v="1899-12-30T10:20:00"/>
+    <d v="1899-12-30T10:35:00"/>
+    <d v="1899-12-30T10:55:00"/>
+    <n v="8.1"/>
+    <x v="4"/>
+    <s v="Delayed"/>
+    <n v="34.999999999999957"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="South Street"/>
+    <s v="North Zone"/>
+    <d v="1899-12-30T10:25:00"/>
+    <d v="1899-12-30T10:40:00"/>
+    <d v="1899-12-30T11:00:00"/>
+    <n v="7.2"/>
+    <x v="0"/>
+    <s v="Delivered"/>
+    <n v="35.000000000000036"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Downtown"/>
+    <s v="South Zone"/>
+    <d v="1899-12-30T10:30:00"/>
+    <d v="1899-12-30T10:45:00"/>
+    <d v="1899-12-30T11:05:00"/>
+    <n v="4.8"/>
+    <x v="1"/>
+    <s v="Delivered"/>
+    <n v="35.000000000000036"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="East Zone"/>
+    <s v="East Zone"/>
+    <d v="1899-12-30T10:35:00"/>
+    <d v="1899-12-30T10:50:00"/>
+    <d v="1899-12-30T11:15:00"/>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="Delayed"/>
+    <n v="39.999999999999936"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="West End"/>
+    <s v="West Zone"/>
+    <d v="1899-12-30T10:40:00"/>
+    <d v="1899-12-30T10:55:00"/>
+    <d v="1899-12-30T11:20:00"/>
+    <n v="6.5"/>
+    <x v="3"/>
+    <s v="Delivered"/>
+    <n v="40.000000000000099"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="Central Mall"/>
+    <s v="Central Zone"/>
+    <d v="1899-12-30T10:45:00"/>
+    <d v="1899-12-30T11:00:00"/>
+    <d v="1899-12-30T11:25:00"/>
+    <n v="7.8"/>
+    <x v="4"/>
+    <s v="Delivered"/>
+    <n v="39.999999999999936"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="North Park"/>
+    <s v="North Zone"/>
+    <d v="1899-12-30T10:50:00"/>
+    <d v="1899-12-30T11:05:00"/>
+    <d v="1899-12-30T11:30:00"/>
+    <n v="5.0999999999999996"/>
+    <x v="0"/>
+    <s v="Delayed"/>
+    <n v="40.000000000000014"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="South Street"/>
+    <s v="South Zone"/>
+    <d v="1899-12-30T10:55:00"/>
+    <d v="1899-12-30T11:10:00"/>
+    <d v="1899-12-30T11:40:00"/>
+    <n v="8.4"/>
+    <x v="1"/>
+    <s v="Delivered"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="Downtown"/>
+    <s v="East Zone"/>
+    <d v="1899-12-30T11:00:00"/>
+    <d v="1899-12-30T11:15:00"/>
+    <d v="1899-12-30T11:45:00"/>
+    <n v="4.5"/>
+    <x v="2"/>
+    <s v="Delivered"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="East Zone"/>
+    <s v="West Zone"/>
+    <d v="1899-12-30T11:05:00"/>
+    <d v="1899-12-30T11:20:00"/>
+    <d v="1899-12-30T11:55:00"/>
+    <n v="7.9"/>
+    <x v="3"/>
+    <s v="Delayed"/>
+    <n v="49.999999999999901"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="West End"/>
+    <s v="Central Zone"/>
+    <d v="1899-12-30T11:10:00"/>
+    <d v="1899-12-30T11:25:00"/>
+    <d v="1899-12-30T12:00:00"/>
+    <n v="6.2"/>
+    <x v="4"/>
+    <s v="Delivered"/>
+    <n v="50.000000000000064"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="Central Mall"/>
+    <s v="North Zone"/>
+    <d v="1899-12-30T11:15:00"/>
+    <d v="1899-12-30T11:30:00"/>
+    <d v="1899-12-30T12:05:00"/>
+    <n v="5.8"/>
+    <x v="0"/>
+    <s v="Delivered"/>
+    <n v="49.999999999999986"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="North Park"/>
+    <s v="South Zone"/>
+    <d v="1899-12-30T11:20:00"/>
+    <d v="1899-12-30T11:35:00"/>
+    <d v="1899-12-30T12:10:00"/>
+    <n v="8"/>
+    <x v="1"/>
+    <s v="Delivered"/>
+    <n v="49.999999999999901"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="South Street"/>
+    <s v="East Zone"/>
+    <d v="1899-12-30T11:25:00"/>
+    <d v="1899-12-30T11:40:00"/>
+    <d v="1899-12-30T12:20:00"/>
+    <n v="7.3"/>
+    <x v="2"/>
+    <s v="Delayed"/>
+    <n v="55.000000000000128"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="Downtown"/>
+    <s v="West Zone"/>
+    <d v="1899-12-30T11:30:00"/>
+    <d v="1899-12-30T11:45:00"/>
+    <d v="1899-12-30T12:25:00"/>
+    <n v="4.5999999999999996"/>
+    <x v="3"/>
+    <s v="Delivered"/>
+    <n v="54.999999999999886"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="East Zone"/>
+    <s v="Central Zone"/>
+    <d v="1899-12-30T11:35:00"/>
+    <d v="1899-12-30T11:50:00"/>
+    <d v="1899-12-30T12:30:00"/>
+    <n v="6.9"/>
+    <x v="4"/>
+    <s v="Delivered"/>
+    <n v="55.000000000000043"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <s v="ORD101"/>
+    <s v="Downtown"/>
+    <s v="North Zone"/>
+    <d v="1899-12-30T10:00:00"/>
+    <d v="1899-12-30T10:10:00"/>
+    <d v="1899-12-30T10:30:00"/>
+    <n v="5.2"/>
+    <s v="D01"/>
+    <s v="Delivered"/>
+    <n v="29.999999999999972"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD102"/>
+    <s v="East Zone"/>
+    <s v="South Zone"/>
+    <d v="1899-12-30T10:05:00"/>
+    <d v="1899-12-30T10:20:00"/>
+    <d v="1899-12-30T10:50:00"/>
+    <n v="7.5"/>
+    <s v="D02"/>
+    <s v="Delayed"/>
+    <n v="45"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD103"/>
+    <s v="West End"/>
+    <s v="East Zone"/>
+    <d v="1899-12-30T10:10:00"/>
+    <d v="1899-12-30T10:25:00"/>
+    <d v="1899-12-30T10:55:00"/>
+    <n v="4.3"/>
+    <s v="D03"/>
+    <s v="Delivered"/>
+    <n v="45"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD104"/>
+    <s v="Central Mall"/>
+    <s v="West Zone"/>
+    <d v="1899-12-30T10:15:00"/>
+    <d v="1899-12-30T10:30:00"/>
+    <d v="1899-12-30T10:45:00"/>
+    <n v="6"/>
+    <s v="D04"/>
+    <s v="Delivered"/>
+    <n v="30.000000000000053"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD105"/>
+    <s v="North Park"/>
+    <s v="Central Zone"/>
+    <d v="1899-12-30T10:20:00"/>
+    <d v="1899-12-30T10:35:00"/>
+    <d v="1899-12-30T10:55:00"/>
+    <n v="8.1"/>
+    <s v="D05"/>
+    <s v="Delayed"/>
+    <n v="34.999999999999957"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD106"/>
+    <s v="South Street"/>
+    <s v="North Zone"/>
+    <d v="1899-12-30T10:25:00"/>
+    <d v="1899-12-30T10:40:00"/>
+    <d v="1899-12-30T11:00:00"/>
+    <n v="7.2"/>
+    <s v="D01"/>
+    <s v="Delivered"/>
+    <n v="35.000000000000036"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD107"/>
+    <s v="Downtown"/>
+    <s v="South Zone"/>
+    <d v="1899-12-30T10:30:00"/>
+    <d v="1899-12-30T10:45:00"/>
+    <d v="1899-12-30T11:05:00"/>
+    <n v="4.8"/>
+    <s v="D02"/>
+    <s v="Delivered"/>
+    <n v="35.000000000000036"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD108"/>
+    <s v="East Zone"/>
+    <s v="East Zone"/>
+    <d v="1899-12-30T10:35:00"/>
+    <d v="1899-12-30T10:50:00"/>
+    <d v="1899-12-30T11:15:00"/>
+    <n v="5"/>
+    <s v="D03"/>
+    <s v="Delayed"/>
+    <n v="39.999999999999936"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD109"/>
+    <s v="West End"/>
+    <s v="West Zone"/>
+    <d v="1899-12-30T10:40:00"/>
+    <d v="1899-12-30T10:55:00"/>
+    <d v="1899-12-30T11:20:00"/>
+    <n v="6.5"/>
+    <s v="D04"/>
+    <s v="Delivered"/>
+    <n v="40.000000000000099"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD110"/>
+    <s v="Central Mall"/>
+    <s v="Central Zone"/>
+    <d v="1899-12-30T10:45:00"/>
+    <d v="1899-12-30T11:00:00"/>
+    <d v="1899-12-30T11:25:00"/>
+    <n v="7.8"/>
+    <s v="D05"/>
+    <s v="Delivered"/>
+    <n v="39.999999999999936"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD111"/>
+    <s v="North Park"/>
+    <s v="North Zone"/>
+    <d v="1899-12-30T10:50:00"/>
+    <d v="1899-12-30T11:05:00"/>
+    <d v="1899-12-30T11:30:00"/>
+    <n v="5.0999999999999996"/>
+    <s v="D01"/>
+    <s v="Delayed"/>
+    <n v="40.000000000000014"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD112"/>
+    <s v="South Street"/>
+    <s v="South Zone"/>
+    <d v="1899-12-30T10:55:00"/>
+    <d v="1899-12-30T11:10:00"/>
+    <d v="1899-12-30T11:40:00"/>
+    <n v="8.4"/>
+    <s v="D02"/>
+    <s v="Delivered"/>
+    <n v="45"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="ORD113"/>
+    <s v="Downtown"/>
+    <s v="East Zone"/>
+    <d v="1899-12-30T11:00:00"/>
+    <d v="1899-12-30T11:15:00"/>
+    <d v="1899-12-30T11:45:00"/>
+    <n v="4.5"/>
+    <s v="D03"/>
+    <s v="Delivered"/>
+    <n v="45"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ORD114"/>
+    <s v="East Zone"/>
+    <s v="West Zone"/>
+    <d v="1899-12-30T11:05:00"/>
+    <d v="1899-12-30T11:20:00"/>
+    <d v="1899-12-30T11:55:00"/>
+    <n v="7.9"/>
+    <s v="D04"/>
+    <s v="Delayed"/>
+    <n v="49.999999999999901"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ORD115"/>
+    <s v="West End"/>
+    <s v="Central Zone"/>
+    <d v="1899-12-30T11:10:00"/>
+    <d v="1899-12-30T11:25:00"/>
+    <d v="1899-12-30T12:00:00"/>
+    <n v="6.2"/>
+    <s v="D05"/>
+    <s v="Delivered"/>
+    <n v="50.000000000000064"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ORD116"/>
+    <s v="Central Mall"/>
+    <s v="North Zone"/>
+    <d v="1899-12-30T11:15:00"/>
+    <d v="1899-12-30T11:30:00"/>
+    <d v="1899-12-30T12:05:00"/>
+    <n v="5.8"/>
+    <s v="D01"/>
+    <s v="Delivered"/>
+    <n v="49.999999999999986"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ORD117"/>
+    <s v="North Park"/>
+    <s v="South Zone"/>
+    <d v="1899-12-30T11:20:00"/>
+    <d v="1899-12-30T11:35:00"/>
+    <d v="1899-12-30T12:10:00"/>
+    <n v="8"/>
+    <s v="D02"/>
+    <s v="Delivered"/>
+    <n v="49.999999999999901"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ORD118"/>
+    <s v="South Street"/>
+    <s v="East Zone"/>
+    <d v="1899-12-30T11:25:00"/>
+    <d v="1899-12-30T11:40:00"/>
+    <d v="1899-12-30T12:20:00"/>
+    <n v="7.3"/>
+    <s v="D03"/>
+    <s v="Delayed"/>
+    <n v="55.000000000000128"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ORD119"/>
+    <s v="Downtown"/>
+    <s v="West Zone"/>
+    <d v="1899-12-30T11:30:00"/>
+    <d v="1899-12-30T11:45:00"/>
+    <d v="1899-12-30T12:25:00"/>
+    <n v="4.5999999999999996"/>
+    <s v="D04"/>
+    <s v="Delivered"/>
+    <n v="54.999999999999886"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ORD120"/>
+    <s v="East Zone"/>
+    <s v="Central Zone"/>
+    <d v="1899-12-30T11:35:00"/>
+    <d v="1899-12-30T11:50:00"/>
+    <d v="1899-12-30T12:30:00"/>
+    <n v="6.9"/>
+    <s v="D05"/>
+    <s v="Delivered"/>
+    <n v="55.000000000000043"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6CE11285-61B9-4E45-9BCE-B33BA131B4DA}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Order_ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCDE9F7C-E317-49EA-B3E6-6C0B74C17697}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Total_Delivery_Time_Min" fld="9" subtotal="average" baseField="10" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,11 +4635,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186DAF7A-1D7F-4F2B-A090-344BAB3A47E5}">
+  <dimension ref="A3:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE9C311-76D4-4C94-B20C-B5F4204025F1}">
+  <dimension ref="A3:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>38.333333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7">
+        <v>51.249999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FBC3FC-9A70-4CAA-82C0-098287A57B26}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,9 +4781,11 @@
     <col min="7" max="7" width="14.5546875" customWidth="1"/>
     <col min="8" max="8" width="15.109375" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,8 +4813,14 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -609,8 +4848,16 @@
       <c r="I2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="4">
+        <f>(F2-D2)*1440</f>
+        <v>29.999999999999972</v>
+      </c>
+      <c r="K2">
+        <f>HOUR(D2)</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -638,8 +4885,16 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J21" si="0">(F3-D3)*1440</f>
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K21" si="1">HOUR(D3)</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -667,8 +4922,16 @@
       <c r="I4" t="s">
         <v>13</v>
       </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -696,8 +4959,16 @@
       <c r="I5" t="s">
         <v>13</v>
       </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>30.000000000000053</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -725,8 +4996,16 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>34.999999999999957</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -754,8 +5033,16 @@
       <c r="I7" t="s">
         <v>13</v>
       </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>35.000000000000036</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -783,8 +5070,16 @@
       <c r="I8" t="s">
         <v>13</v>
       </c>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>35.000000000000036</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -812,8 +5107,16 @@
       <c r="I9" t="s">
         <v>18</v>
       </c>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>39.999999999999936</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -841,8 +5144,16 @@
       <c r="I10" t="s">
         <v>13</v>
       </c>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>40.000000000000099</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -870,8 +5181,16 @@
       <c r="I11" t="s">
         <v>13</v>
       </c>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>39.999999999999936</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -899,8 +5218,16 @@
       <c r="I12" t="s">
         <v>18</v>
       </c>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>40.000000000000014</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -928,8 +5255,16 @@
       <c r="I13" t="s">
         <v>13</v>
       </c>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -957,8 +5292,16 @@
       <c r="I14" t="s">
         <v>13</v>
       </c>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -986,8 +5329,16 @@
       <c r="I15" t="s">
         <v>18</v>
       </c>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>49.999999999999901</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1015,8 +5366,16 @@
       <c r="I16" t="s">
         <v>13</v>
       </c>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>50.000000000000064</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1044,8 +5403,16 @@
       <c r="I17" t="s">
         <v>13</v>
       </c>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>49.999999999999986</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1073,8 +5440,16 @@
       <c r="I18" t="s">
         <v>13</v>
       </c>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>49.999999999999901</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1102,8 +5477,16 @@
       <c r="I19" t="s">
         <v>18</v>
       </c>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>55.000000000000128</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1131,8 +5514,16 @@
       <c r="I20" t="s">
         <v>13</v>
       </c>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>54.999999999999886</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1159,10 +5550,25 @@
       </c>
       <c r="I21" t="s">
         <v>13</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>55.000000000000043</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <f>(F2-D2)*1440</f>
+        <v>29.999999999999972</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>